--- a/assets/externals/Book1.xlsx
+++ b/assets/externals/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{431FB4F0-1596-4C49-9BCB-E48862C8A4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B38994-7A6A-4F3C-80A0-3F88F828E7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62EF0AF3-DBFA-4B27-8AC1-F265F983CB2B}"/>
   </bookViews>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D0A8C3-930C-4AC6-BA70-1B30C35D0791}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,6 +425,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
